--- a/data/trans_orig/P14A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A02-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B14A9FD-A601-4E50-BEF4-1B284CBC396E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5840432-8606-4918-AF24-433EC6BE37CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3714750-7C70-4D59-BA5E-E8FE1C15B0F2}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF892430-184C-479B-AFA3-1145C44A61F6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="230">
   <si>
     <t>Población que recibe medicación o terapia por diabetes en 2012 (Tasa respuesta: 8,08%)</t>
   </si>
@@ -93,13 +93,13 @@
     <t>96,35%</t>
   </si>
   <si>
-    <t>87,14%</t>
+    <t>88,36%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>92,18%</t>
+    <t>93,05%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -114,13 +114,13 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>12,86%</t>
+    <t>11,64%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>7,82%</t>
+    <t>6,95%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -129,25 +129,25 @@
     <t>96,78%</t>
   </si>
   <si>
-    <t>86,3%</t>
+    <t>81,93%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>92,14%</t>
+    <t>93,69%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>13,7%</t>
+    <t>18,07%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>7,86%</t>
+    <t>6,31%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -156,178 +156,178 @@
     <t>91,5%</t>
   </si>
   <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>37,04%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
     <t>89,81%</t>
   </si>
   <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
   </si>
   <si>
     <t>10,19%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>97,92%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>21,39%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -336,13 +336,13 @@
     <t>97,91%</t>
   </si>
   <si>
-    <t>89,43%</t>
+    <t>89,16%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>82,46%</t>
+    <t>82,48%</t>
   </si>
   <si>
     <t>97,96%</t>
@@ -351,16 +351,16 @@
     <t>95,74%</t>
   </si>
   <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
   </si>
   <si>
     <t>2,09%</t>
   </si>
   <si>
-    <t>10,57%</t>
+    <t>10,84%</t>
   </si>
   <si>
     <t>6,48%</t>
@@ -369,31 +369,31 @@
     <t>2,04%</t>
   </si>
   <si>
-    <t>17,54%</t>
+    <t>17,52%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>93,53%</t>
+    <t>93,84%</t>
   </si>
   <si>
     <t>98,03%</t>
@@ -402,19 +402,19 @@
     <t>96,02%</t>
   </si>
   <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
   </si>
   <si>
     <t>3,68%</t>
@@ -423,16 +423,16 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>6,47%</t>
+    <t>6,16%</t>
   </si>
   <si>
     <t>3,98%</t>
   </si>
   <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -453,7 +453,7 @@
     <t>94,02%</t>
   </si>
   <si>
-    <t>81,04%</t>
+    <t>81,0%</t>
   </si>
   <si>
     <t>9,05%</t>
@@ -468,13 +468,13 @@
     <t>5,98%</t>
   </si>
   <si>
-    <t>18,96%</t>
+    <t>19,0%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>81,74%</t>
+    <t>82,47%</t>
   </si>
   <si>
     <t>92,21%</t>
@@ -483,28 +483,25 @@
     <t>82,39%</t>
   </si>
   <si>
-    <t>97,94%</t>
+    <t>97,99%</t>
   </si>
   <si>
     <t>92,98%</t>
   </si>
   <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>96,63%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>18,26%</t>
+    <t>17,53%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>2,06%</t>
+    <t>2,01%</t>
   </si>
   <si>
     <t>17,61%</t>
@@ -513,10 +510,7 @@
     <t>7,02%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
+    <t>3,37%</t>
   </si>
   <si>
     <t>89,47%</t>
@@ -525,13 +519,13 @@
     <t>96,03%</t>
   </si>
   <si>
-    <t>77,46%</t>
+    <t>81,23%</t>
   </si>
   <si>
     <t>97,51%</t>
   </si>
   <si>
-    <t>89,61%</t>
+    <t>84,98%</t>
   </si>
   <si>
     <t>10,53%</t>
@@ -540,13 +534,13 @@
     <t>3,97%</t>
   </si>
   <si>
-    <t>22,54%</t>
+    <t>18,77%</t>
   </si>
   <si>
     <t>2,49%</t>
   </si>
   <si>
-    <t>10,39%</t>
+    <t>15,02%</t>
   </si>
   <si>
     <t>95,93%</t>
@@ -555,13 +549,13 @@
     <t>90,85%</t>
   </si>
   <si>
-    <t>72,98%</t>
+    <t>69,6%</t>
   </si>
   <si>
     <t>96,6%</t>
   </si>
   <si>
-    <t>89,73%</t>
+    <t>88,15%</t>
   </si>
   <si>
     <t>4,07%</t>
@@ -570,13 +564,13 @@
     <t>9,15%</t>
   </si>
   <si>
-    <t>27,02%</t>
+    <t>30,4%</t>
   </si>
   <si>
     <t>3,4%</t>
   </si>
   <si>
-    <t>10,27%</t>
+    <t>11,85%</t>
   </si>
   <si>
     <t>87,39%</t>
@@ -600,7 +594,7 @@
     <t>95,46%</t>
   </si>
   <si>
-    <t>77,94%</t>
+    <t>80,13%</t>
   </si>
   <si>
     <t>94,78%</t>
@@ -612,13 +606,13 @@
     <t>95,11%</t>
   </si>
   <si>
-    <t>83,46%</t>
+    <t>84,44%</t>
   </si>
   <si>
     <t>4,54%</t>
   </si>
   <si>
-    <t>22,06%</t>
+    <t>19,87%</t>
   </si>
   <si>
     <t>5,22%</t>
@@ -630,7 +624,7 @@
     <t>4,89%</t>
   </si>
   <si>
-    <t>16,54%</t>
+    <t>15,56%</t>
   </si>
   <si>
     <t>97,18%</t>
@@ -651,94 +645,88 @@
     <t>1,62%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
+    <t>93,59%</t>
   </si>
   <si>
     <t>98,61%</t>
   </si>
   <si>
-    <t>92,95%</t>
+    <t>93,14%</t>
   </si>
   <si>
     <t>98,77%</t>
   </si>
   <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
+    <t>95,56%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>7,05%</t>
+    <t>6,86%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>4,31%</t>
+    <t>4,44%</t>
   </si>
   <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
   </si>
   <si>
     <t>95,96%</t>
   </si>
   <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>97,8%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
   </si>
   <si>
     <t>1,3%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
   </si>
 </sst>
 </file>
@@ -1150,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF7AE244-9E9C-4D3D-8B72-108EF2F60F1B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642E2F46-4B93-4F48-900E-8AACF3561738}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2663,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43955D1-6103-477C-8A92-8FFC7449C9E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB548CB-4D13-4EB5-AED0-32EDB3ED18FE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2975,10 +2963,10 @@
         <v>149</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2981,13 @@
         <v>2264</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -3008,13 +2996,13 @@
         <v>4387</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3023,13 +3011,13 @@
         <v>6651</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>158</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>159</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3088,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>16</v>
@@ -3112,10 +3100,10 @@
         <v>23549</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -3127,10 +3115,10 @@
         <v>38062</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>14</v>
@@ -3154,7 +3142,7 @@
         <v>22</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3163,13 +3151,13 @@
         <v>973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M11" s="7">
         <v>1</v>
@@ -3178,13 +3166,13 @@
         <v>973</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3255,7 +3243,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>16</v>
@@ -3267,10 +3255,10 @@
         <v>23866</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3282,10 +3270,10 @@
         <v>68369</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -3309,7 +3297,7 @@
         <v>22</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -3318,13 +3306,13 @@
         <v>2404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -3333,13 +3321,13 @@
         <v>2404</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3410,7 +3398,7 @@
         <v>14</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>16</v>
@@ -3425,7 +3413,7 @@
         <v>14</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>16</v>
@@ -3440,7 +3428,7 @@
         <v>14</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>16</v>
@@ -3464,7 +3452,7 @@
         <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3479,7 +3467,7 @@
         <v>22</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="M17" s="7">
         <v>0</v>
@@ -3494,7 +3482,7 @@
         <v>22</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3562,10 +3550,10 @@
         <v>17377</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>14</v>
@@ -3577,10 +3565,10 @@
         <v>18367</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>14</v>
@@ -3592,10 +3580,10 @@
         <v>35744</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>14</v>
@@ -3613,13 +3601,13 @@
         <v>826</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3628,13 +3616,13 @@
         <v>1012</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -3643,13 +3631,13 @@
         <v>1838</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3720,7 +3708,7 @@
         <v>14</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -3735,7 +3723,7 @@
         <v>14</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>16</v>
@@ -3750,7 +3738,7 @@
         <v>14</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
         <v>16</v>
@@ -3774,7 +3762,7 @@
         <v>22</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3789,7 +3777,7 @@
         <v>22</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M23" s="7">
         <v>0</v>
@@ -3804,7 +3792,7 @@
         <v>22</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3872,10 +3860,10 @@
         <v>72785</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>204</v>
+        <v>105</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3887,10 +3875,10 @@
         <v>73849</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -3902,10 +3890,10 @@
         <v>146633</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3923,13 +3911,13 @@
         <v>783</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>210</v>
+        <v>112</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3938,13 +3926,13 @@
         <v>1039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3953,13 +3941,13 @@
         <v>1823</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4027,13 +4015,13 @@
         <v>293843</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H28" s="7">
         <v>246</v>
@@ -4042,13 +4030,13 @@
         <v>285176</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="M28" s="7">
         <v>540</v>
@@ -4057,13 +4045,13 @@
         <v>579019</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4078,13 +4066,13 @@
         <v>3873</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H29" s="7">
         <v>11</v>
@@ -4093,13 +4081,13 @@
         <v>12003</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M29" s="7">
         <v>15</v>
@@ -4108,13 +4096,13 @@
         <v>15876</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A02-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P14A02-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D5840432-8606-4918-AF24-433EC6BE37CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAED8BDB-EEED-4ECC-BDBE-B3CECC41B739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CF892430-184C-479B-AFA3-1145C44A61F6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{988C87EE-CF07-4CC6-8947-B820487D218B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -93,13 +93,13 @@
     <t>96,35%</t>
   </si>
   <si>
-    <t>88,36%</t>
+    <t>87,18%</t>
   </si>
   <si>
     <t>97,75%</t>
   </si>
   <si>
-    <t>93,05%</t>
+    <t>93,2%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -114,13 +114,13 @@
     <t>3,65%</t>
   </si>
   <si>
-    <t>11,64%</t>
+    <t>12,82%</t>
   </si>
   <si>
     <t>2,25%</t>
   </si>
   <si>
-    <t>6,95%</t>
+    <t>6,8%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -129,25 +129,25 @@
     <t>96,78%</t>
   </si>
   <si>
-    <t>81,93%</t>
+    <t>83,97%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>93,69%</t>
+    <t>90,78%</t>
   </si>
   <si>
     <t>3,22%</t>
   </si>
   <si>
-    <t>18,07%</t>
+    <t>16,03%</t>
   </si>
   <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>6,31%</t>
+    <t>9,22%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -156,49 +156,49 @@
     <t>91,5%</t>
   </si>
   <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
   </si>
   <si>
     <t>97,97%</t>
   </si>
   <si>
-    <t>89,88%</t>
+    <t>89,83%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
   </si>
   <si>
     <t>8,5%</t>
   </si>
   <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
   </si>
   <si>
     <t>2,03%</t>
   </si>
   <si>
-    <t>10,12%</t>
+    <t>10,17%</t>
   </si>
   <si>
     <t>5,03%</t>
   </si>
   <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -207,43 +207,43 @@
     <t>89,39%</t>
   </si>
   <si>
-    <t>62,96%</t>
+    <t>68,61%</t>
   </si>
   <si>
     <t>92,48%</t>
   </si>
   <si>
-    <t>77,48%</t>
+    <t>76,88%</t>
   </si>
   <si>
     <t>91,19%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
   </si>
   <si>
     <t>10,61%</t>
   </si>
   <si>
-    <t>37,04%</t>
+    <t>31,39%</t>
   </si>
   <si>
     <t>7,52%</t>
   </si>
   <si>
-    <t>22,52%</t>
+    <t>23,12%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
   </si>
   <si>
     <t>Jaen</t>
@@ -252,37 +252,37 @@
     <t>94,94%</t>
   </si>
   <si>
-    <t>70,04%</t>
+    <t>77,11%</t>
   </si>
   <si>
     <t>96,57%</t>
   </si>
   <si>
-    <t>82,53%</t>
+    <t>79,19%</t>
   </si>
   <si>
     <t>95,89%</t>
   </si>
   <si>
-    <t>85,57%</t>
+    <t>87,54%</t>
   </si>
   <si>
     <t>5,06%</t>
   </si>
   <si>
-    <t>29,96%</t>
+    <t>22,89%</t>
   </si>
   <si>
     <t>3,43%</t>
   </si>
   <si>
-    <t>17,47%</t>
+    <t>20,81%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>14,43%</t>
+    <t>12,46%</t>
   </si>
   <si>
     <t>Malaga</t>
@@ -291,43 +291,43 @@
     <t>96,11%</t>
   </si>
   <si>
-    <t>86,93%</t>
+    <t>87,82%</t>
   </si>
   <si>
     <t>96,65%</t>
   </si>
   <si>
-    <t>89,81%</t>
+    <t>89,48%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>3,89%</t>
   </si>
   <si>
-    <t>13,07%</t>
+    <t>12,18%</t>
   </si>
   <si>
     <t>3,35%</t>
   </si>
   <si>
-    <t>10,19%</t>
+    <t>10,52%</t>
   </si>
   <si>
     <t>3,61%</t>
   </si>
   <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
   </si>
   <si>
     <t>Sevilla</t>
@@ -336,349 +336,349 @@
     <t>97,91%</t>
   </si>
   <si>
-    <t>89,16%</t>
+    <t>89,23%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
   </si>
   <si>
     <t>95,74%</t>
   </si>
   <si>
-    <t>90,26%</t>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por diabetes en 2016 (Tasa respuesta: 8,45%)</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
+    <t>80,12%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>79,32%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>82,41%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>72,79%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
   </si>
   <si>
     <t>98,94%</t>
   </si>
   <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por diabetes en 2015 (Tasa respuesta: 8,45%)</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>52,3%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>69,6%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>5,4%</t>
   </si>
   <si>
     <t>1,39%</t>
   </si>
   <si>
-    <t>6,86%</t>
+    <t>6,28%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>4,44%</t>
-  </si>
-  <si>
     <t>98,7%</t>
   </si>
   <si>
-    <t>96,84%</t>
+    <t>96,74%</t>
   </si>
   <si>
     <t>99,62%</t>
@@ -687,19 +687,19 @@
     <t>95,96%</t>
   </si>
   <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
   </si>
   <si>
     <t>1,3%</t>
@@ -708,25 +708,25 @@
     <t>0,38%</t>
   </si>
   <si>
-    <t>3,16%</t>
+    <t>3,26%</t>
   </si>
   <si>
     <t>4,04%</t>
   </si>
   <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
   </si>
   <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1138,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{642E2F46-4B93-4F48-900E-8AACF3561738}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726E1183-FC90-48D8-AD9F-51B58E402631}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2651,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB548CB-4D13-4EB5-AED0-32EDB3ED18FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED56457B-993C-4603-B367-33E1AE5434A1}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2951,7 +2951,7 @@
         <v>147</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="M7" s="7">
         <v>81</v>
@@ -2960,10 +2960,10 @@
         <v>88114</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>150</v>
@@ -2999,10 +2999,10 @@
         <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>6</v>
@@ -3011,13 +3011,13 @@
         <v>6651</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,10 +3860,10 @@
         <v>72785</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>105</v>
+        <v>202</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>14</v>
@@ -3875,10 +3875,10 @@
         <v>73849</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>14</v>
@@ -3890,10 +3890,10 @@
         <v>146633</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>206</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>14</v>
@@ -3911,13 +3911,13 @@
         <v>783</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>112</v>
+        <v>207</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -3926,13 +3926,13 @@
         <v>1039</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M26" s="7">
         <v>2</v>
@@ -3941,13 +3941,13 @@
         <v>1823</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>21</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
